--- a/2022/Symphony/Others/Capital Mugdho Corporation 27.04.2022.xlsx
+++ b/2022/Symphony/Others/Capital Mugdho Corporation 27.04.2022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Mugdho Corporation</t>
   </si>
@@ -34,15 +34,6 @@
   </si>
   <si>
     <t>Total Samsung Capital</t>
-  </si>
-  <si>
-    <t>Date: 27.04.2022</t>
-  </si>
-  <si>
-    <t>28.04.2022 Realme Need</t>
-  </si>
-  <si>
-    <t>28.04.2022 Samsung Need</t>
   </si>
   <si>
     <r>
@@ -122,12 +113,15 @@
   <si>
     <t>All Invest</t>
   </si>
+  <si>
+    <t>Date: 28.04.2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,8 +144,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,18 +161,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -180,21 +211,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -314,42 +330,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -632,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C22"/>
+  <dimension ref="B1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -655,153 +688,137 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="2:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11">
         <v>8000000</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="11">
         <v>3000000</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="15">
         <f>C5+C6</f>
         <v>11000000</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
+    <row r="8" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="13">
         <v>9000000</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="7">
-        <v>8500000</v>
+      <c r="C10" s="13">
+        <v>10500000</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="17">
         <f>C9+C10</f>
-        <v>17500000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
+        <v>19500000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="19">
+        <f>C13+C14</f>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7">
-        <v>13000000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7">
-        <v>4500000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="9">
-        <f>C13+C14</f>
-        <v>17500000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="C17" s="11">
         <f>C5+C9+C13</f>
         <v>30000000</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11">
         <f>C6+C10+C14</f>
-        <v>16000000</v>
+        <v>20500000</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="23">
         <f>SUM(C17:C18)</f>
-        <v>46000000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="12">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="12">
-        <v>2500000</v>
-      </c>
-    </row>
+        <v>50500000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2022/Symphony/Others/Capital Mugdho Corporation 27.04.2022.xlsx
+++ b/2022/Symphony/Others/Capital Mugdho Corporation 27.04.2022.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Mugdho Corporation</t>
   </si>
@@ -116,12 +117,42 @@
   <si>
     <t>Date: 28.04.2022</t>
   </si>
+  <si>
+    <t>Symphony Additional</t>
+  </si>
+  <si>
+    <t>01.05.2022 Boss Cash Handover</t>
+  </si>
+  <si>
+    <t>Realme Additional</t>
+  </si>
+  <si>
+    <t>Realme Additional =</t>
+  </si>
+  <si>
+    <t>Symphony Additional =</t>
+  </si>
+  <si>
+    <t>Samsung Additional =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All additional </t>
+  </si>
+  <si>
+    <t>All additional  =</t>
+  </si>
+  <si>
+    <t>Date: 01.05.2022</t>
+  </si>
+  <si>
+    <t>01.05.2022 Total Cash Handover</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +182,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +237,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,27 +405,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -369,22 +426,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -681,44 +776,44 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5"/>
+      <c r="B3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" spans="2:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="11">
-        <v>8000000</v>
+      <c r="B5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="27">
+        <v>3000000</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11">
-        <v>3000000</v>
+      <c r="B6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="27">
+        <v>800000</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="15">
-        <f>C5+C6</f>
-        <v>11000000</v>
+      <c r="B7" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="31">
+        <f>C5-C6</f>
+        <v>2200000</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -726,88 +821,88 @@
       <c r="C8" s="25"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="13">
-        <v>9000000</v>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7">
+        <v>10500000</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="33">
+        <f>C9-C10</f>
+        <v>7800000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13">
-        <v>10500000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="17">
-        <f>C9+C10</f>
-        <v>19500000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="9">
-        <v>13000000</v>
+      <c r="C13" s="29">
+        <v>7000000</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="B14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="35">
+        <f>C13+C14</f>
         <v>7000000</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="19">
-        <f>C13+C14</f>
-        <v>20000000</v>
-      </c>
-    </row>
     <row r="16" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5">
         <f>C5+C9+C13</f>
-        <v>30000000</v>
+        <v>20500000</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5">
         <f>C6+C10+C14</f>
-        <v>20500000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="23">
-        <f>SUM(C17:C18)</f>
-        <v>50500000</v>
+      <c r="B19" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="37">
+        <f>C17-C18</f>
+        <v>17000000</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -823,4 +918,165 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="42.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="2:3" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <f>C5+C6</f>
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>10500000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11">
+        <f>C9+C10</f>
+        <v>19500000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="13">
+        <f>C13+C14</f>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5">
+        <f>C5+C9+C13</f>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5">
+        <f>C6+C10+C14</f>
+        <v>20500000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="15">
+        <f>SUM(C17:C18)</f>
+        <v>50500000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B16:C16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>